--- a/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
+++ b/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KPISystem\Progress report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2C8E9-22EF-47EE-9F58-C42FF7763C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E588EC-5A50-4633-A1A0-FA8BC307820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1408,45 +1408,6 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1473,15 +1434,6 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1514,6 +1466,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="4" builtinId="26"/>
@@ -1857,8 +1857,8 @@
   </sheetPr>
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,24 +1881,24 @@
     <row r="1" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="27"/>
@@ -1925,26 +1925,26 @@
     <row r="5" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
     </row>
     <row r="6" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
@@ -1954,16 +1954,16 @@
       </c>
       <c r="D6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
@@ -1979,54 +1979,54 @@
     <row r="8" spans="1:21" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="70">
+      <c r="J8" s="98">
         <v>44652</v>
       </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="73">
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="88">
         <v>44682</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="90" t="s">
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="88"/>
-      <c r="U8" s="89"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="93"/>
     </row>
     <row r="9" spans="1:21" ht="57.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="77"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="2">
         <v>44652</v>
       </c>
@@ -2078,26 +2078,26 @@
     <row r="10" spans="1:21" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="78"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="25" t="s">
         <v>120</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="79" t="s">
+      <c r="N10" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="25" t="s">
@@ -2145,13 +2145,13 @@
       </c>
       <c r="I11" s="20">
         <f>SUM(I12:I26)/COUNT(I12:I26)</f>
-        <v>0.35733333333333328</v>
+        <v>0.44533333333333336</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="80"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="67"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -2188,9 +2188,9 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="81"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="68"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2223,9 +2223,9 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="81"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="68"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2259,9 +2259,9 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="81"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="68"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2294,9 +2294,9 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="81"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="68"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2327,9 +2327,9 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="81"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -2359,13 +2359,13 @@
       </c>
       <c r="I17" s="13">
         <f>SUM(I18:I22)/COUNT(I18:I22)</f>
-        <v>0.06</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="81"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2392,13 +2392,13 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="81"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -2425,13 +2425,13 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="81"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="68"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2443,27 +2443,27 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84">
+      <c r="D20" s="70"/>
+      <c r="E20" s="71">
         <v>44680</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="84">
+      <c r="F20" s="72"/>
+      <c r="G20" s="71">
         <f>E20+9</f>
         <v>44689</v>
       </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="87">
+      <c r="H20" s="73"/>
+      <c r="I20" s="74">
         <v>0</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="81"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="68"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -2494,9 +2494,9 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="81"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="68"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2527,9 +2527,9 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="81"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="68"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -2560,9 +2560,9 @@
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="81"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="68"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2593,9 +2593,9 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="81"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -2626,9 +2626,9 @@
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="81"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="68"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2640,35 +2640,35 @@
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93">
+      <c r="D26" s="76"/>
+      <c r="E26" s="77">
         <f>G25+2</f>
         <v>44711</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93">
+      <c r="F26" s="76"/>
+      <c r="G26" s="77">
         <f>E26+1</f>
         <v>44712</v>
       </c>
-      <c r="H26" s="94"/>
-      <c r="I26" s="95">
+      <c r="H26" s="78"/>
+      <c r="I26" s="79">
         <v>0</v>
       </c>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="99"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="83"/>
     </row>
     <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
@@ -2694,175 +2694,175 @@
     </row>
     <row r="29" spans="1:23" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="102"/>
-      <c r="D32" s="101" t="s">
+      <c r="C32" s="86"/>
+      <c r="D32" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="84"/>
+      <c r="W32" s="84"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="103"/>
-      <c r="D33" s="101" t="s">
+      <c r="C33" s="87"/>
+      <c r="D33" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="101" t="s">
+      <c r="E33" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="100"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="100"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="100"/>
-      <c r="V36" s="100"/>
-      <c r="W36" s="100"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2881,12 +2881,12 @@
     <mergeCell ref="I8:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:U26">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="16">
       <formula>LEN(TRIM(J11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:U26">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>AND($E11&lt;=J$9+6,$G11&gt;=J$9)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3170,60 +3170,60 @@
     <row r="1" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
     </row>
@@ -3290,48 +3290,48 @@
     <row r="5" spans="1:42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
     </row>
     <row r="6" spans="1:42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="27"/>
@@ -3400,85 +3400,85 @@
     <row r="8" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="88">
         <v>44682</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="73">
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="88">
         <v>44713</v>
       </c>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="73">
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="88">
         <v>44743</v>
       </c>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="70">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="98">
         <v>44774</v>
       </c>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="70">
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="98">
         <v>44621</v>
       </c>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="70">
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="98">
         <v>44652</v>
       </c>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="70">
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="98">
         <v>44682</v>
       </c>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="70">
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="98">
         <v>44713</v>
       </c>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
     </row>
     <row r="9" spans="1:42" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="77"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="2">
         <f>E11</f>
         <v>44683</v>
@@ -3615,13 +3615,13 @@
     <row r="10" spans="1:42" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="78"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5211,6 +5211,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="C1:Z2"/>
     <mergeCell ref="C5:AP5"/>
@@ -5227,16 +5229,14 @@
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(J11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AP30">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($E11&lt;=J$9+6,$G11&gt;=J$9)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5314,60 +5314,60 @@
     <row r="1" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
     </row>
@@ -5434,48 +5434,48 @@
     <row r="5" spans="1:42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
     </row>
     <row r="6" spans="1:42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
@@ -5485,17 +5485,17 @@
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="27"/>
@@ -5544,85 +5544,85 @@
     <row r="8" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="88">
         <v>44682</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="73">
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="88">
         <v>44713</v>
       </c>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="73">
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="88">
         <v>44743</v>
       </c>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="70">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="98">
         <v>44593</v>
       </c>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="70">
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="98">
         <v>44621</v>
       </c>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="70">
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="98">
         <v>44652</v>
       </c>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="70">
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="98">
         <v>44682</v>
       </c>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="70">
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="98">
         <v>44713</v>
       </c>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
     </row>
     <row r="9" spans="1:42" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="77"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="2">
         <f>E11</f>
         <v>44684</v>
@@ -5759,13 +5759,13 @@
     <row r="10" spans="1:42" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="78"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="24" t="s">
         <v>0</v>
       </c>
@@ -7043,6 +7043,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="C1:Z2"/>
     <mergeCell ref="C5:AP5"/>
@@ -7059,16 +7061,14 @@
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(J11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AP30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($E11&lt;=J$9+6,$G11&gt;=J$9)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
+++ b/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KPISystem\Progress report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E588EC-5A50-4633-A1A0-FA8BC307820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC3EE36-5774-480E-AA24-25BDB89C15DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,11 +1954,11 @@
       </c>
       <c r="D6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44681</v>
+        <v>44693</v>
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44681</v>
+        <v>44693</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
@@ -2094,13 +2094,13 @@
       <c r="L10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="25" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="38" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="25" t="s">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="I11" s="20">
         <f>SUM(I12:I26)/COUNT(I12:I26)</f>
-        <v>0.44533333333333336</v>
+        <v>0.63733333333333342</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="67"/>
-      <c r="O11" s="22"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -2189,9 +2189,9 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="68"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -2224,9 +2224,9 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="40"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -2260,9 +2260,9 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="68"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="40"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -2295,9 +2295,9 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="68"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -2328,9 +2328,9 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="68"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -2359,14 +2359,14 @@
       </c>
       <c r="I17" s="13">
         <f>SUM(I18:I22)/COUNT(I18:I22)</f>
-        <v>0.27999999999999997</v>
+        <v>0.76</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="40"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="68"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="40"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -2397,9 +2397,9 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="40"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="68"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="40"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2425,14 +2425,14 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="40"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="68"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2457,14 +2457,14 @@
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="40"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="68"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="40"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2490,14 +2490,14 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="40"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="68"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="40"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2523,14 +2523,14 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="40"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="68"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -2561,9 +2561,9 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="40"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="68"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="40"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -2594,9 +2594,9 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="40"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="68"/>
-      <c r="O24" s="7"/>
+      <c r="O24" s="40"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2627,9 +2627,9 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="40"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="68"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2660,9 +2660,9 @@
       <c r="J26" s="80"/>
       <c r="K26" s="80"/>
       <c r="L26" s="80"/>
-      <c r="M26" s="81"/>
+      <c r="M26" s="80"/>
       <c r="N26" s="82"/>
-      <c r="O26" s="80"/>
+      <c r="O26" s="81"/>
       <c r="P26" s="80"/>
       <c r="Q26" s="80"/>
       <c r="R26" s="80"/>
@@ -2881,12 +2881,12 @@
     <mergeCell ref="I8:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:U26">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
       <formula>LEN(TRIM(J11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:U26">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>AND($E11&lt;=J$9+6,$G11&gt;=J$9)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44681</v>
+        <v>44693</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
@@ -5211,6 +5211,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
     <mergeCell ref="W8:Z8"/>
     <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="AE8:AH8"/>
@@ -5227,16 +5229,14 @@
     <mergeCell ref="AI8:AL8"/>
     <mergeCell ref="AM8:AP8"/>
     <mergeCell ref="J8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(J11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AP30">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($E11&lt;=J$9+6,$G11&gt;=J$9)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44681</v>
+        <v>44693</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
@@ -7043,6 +7043,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
     <mergeCell ref="W8:Z8"/>
     <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="AE8:AH8"/>
@@ -7059,16 +7061,14 @@
     <mergeCell ref="AI8:AL8"/>
     <mergeCell ref="AM8:AP8"/>
     <mergeCell ref="J8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(J11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AP30">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($E11&lt;=J$9+6,$G11&gt;=J$9)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
+++ b/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KPISystem\Progress report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC3EE36-5774-480E-AA24-25BDB89C15DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B875F105-FE2F-479E-B614-64BFD256197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,11 +1954,11 @@
       </c>
       <c r="D6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="I11" s="20">
         <f>SUM(I12:I26)/COUNT(I12:I26)</f>
-        <v>0.63733333333333342</v>
+        <v>0.64533333333333343</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="I17" s="13">
         <f>SUM(I18:I22)/COUNT(I18:I22)</f>
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
@@ -5211,11 +5211,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="C1:Z2"/>
     <mergeCell ref="C5:AP5"/>
     <mergeCell ref="H6:N6"/>
@@ -5229,6 +5224,11 @@
     <mergeCell ref="AI8:AL8"/>
     <mergeCell ref="AM8:AP8"/>
     <mergeCell ref="J8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
     <cfRule type="notContainsBlanks" dxfId="3" priority="2">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
@@ -7043,11 +7043,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="C1:Z2"/>
     <mergeCell ref="C5:AP5"/>
     <mergeCell ref="H6:N6"/>
@@ -7061,6 +7056,11 @@
     <mergeCell ref="AI8:AL8"/>
     <mergeCell ref="AM8:AP8"/>
     <mergeCell ref="J8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">

--- a/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
+++ b/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KPISystem\Progress report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B875F105-FE2F-479E-B614-64BFD256197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A12296D-6057-462C-B341-F1E4E5F4A18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="124">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2390,9 @@
         <f>E18+3</f>
         <v>44676</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="I18" s="13">
         <v>1</v>
       </c>
@@ -2423,7 +2425,9 @@
         <f>G20+1</f>
         <v>44690</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="I19" s="13">
         <v>1</v>
       </c>
@@ -2455,7 +2459,9 @@
         <f>E20+9</f>
         <v>44689</v>
       </c>
-      <c r="H20" s="73"/>
+      <c r="H20" s="73" t="s">
+        <v>119</v>
+      </c>
       <c r="I20" s="74">
         <v>1</v>
       </c>
@@ -2488,7 +2494,9 @@
         <f>E21+5</f>
         <v>44696</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="I21" s="13">
         <v>0.6</v>
       </c>
@@ -2521,7 +2529,9 @@
         <f>E22+5</f>
         <v>44703</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="I22" s="13">
         <v>0.3</v>
       </c>
@@ -5211,6 +5221,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="C1:Z2"/>
     <mergeCell ref="C5:AP5"/>
     <mergeCell ref="H6:N6"/>
@@ -5227,8 +5239,6 @@
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="S8:V8"/>
     <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
     <cfRule type="notContainsBlanks" dxfId="3" priority="2">
@@ -7043,6 +7053,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="C1:Z2"/>
     <mergeCell ref="C5:AP5"/>
     <mergeCell ref="H6:N6"/>
@@ -7059,8 +7071,6 @@
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="S8:V8"/>
     <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">

--- a/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
+++ b/Progress report/SIKEDIPP High-Level Timeline V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KPISystem\Progress report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A12296D-6057-462C-B341-F1E4E5F4A18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1A8F0B-C368-43AC-BC2B-CC2114590544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="124">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -1444,9 +1444,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1513,6 +1510,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,24 +1881,24 @@
     <row r="1" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="27"/>
@@ -1925,26 +1925,26 @@
     <row r="5" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
     </row>
     <row r="6" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
@@ -1954,16 +1954,16 @@
       </c>
       <c r="D6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
@@ -1979,54 +1979,54 @@
     <row r="8" spans="1:21" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="97">
         <v>44652</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="88">
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="87">
         <v>44682</v>
       </c>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="91" t="s">
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="92"/>
-      <c r="U8" s="93"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="92"/>
     </row>
     <row r="9" spans="1:21" ht="57.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="102"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="2">
         <v>44652</v>
       </c>
@@ -2078,13 +2078,13 @@
     <row r="10" spans="1:21" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="103"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="25" t="s">
         <v>120</v>
       </c>
@@ -2100,13 +2100,13 @@
       <c r="N10" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="25" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="38" t="s">
         <v>6</v>
       </c>
       <c r="R10" s="25" t="s">
@@ -2145,16 +2145,16 @@
       </c>
       <c r="I11" s="20">
         <f>SUM(I12:I26)/COUNT(I12:I26)</f>
-        <v>0.64533333333333343</v>
+        <v>0.72600000000000009</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="67"/>
-      <c r="O11" s="39"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="Q11" s="39"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -2191,9 +2191,9 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="68"/>
-      <c r="O12" s="40"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -2226,9 +2226,9 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="40"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -2262,9 +2262,9 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="68"/>
-      <c r="O14" s="40"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="40"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -2297,9 +2297,9 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="68"/>
-      <c r="O15" s="40"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="40"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -2330,9 +2330,9 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="68"/>
-      <c r="O16" s="40"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="40"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -2359,16 +2359,16 @@
       </c>
       <c r="I17" s="13">
         <f>SUM(I18:I22)/COUNT(I18:I22)</f>
-        <v>0.78</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="68"/>
-      <c r="O17" s="40"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="40"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -2401,9 +2401,9 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="68"/>
-      <c r="O18" s="40"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="40"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -2436,9 +2436,9 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="68"/>
-      <c r="O19" s="40"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="40"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -2470,9 +2470,9 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="68"/>
-      <c r="O20" s="40"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="40"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -2495,19 +2495,19 @@
         <v>44696</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="I21" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="68"/>
-      <c r="O21" s="40"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="40"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2533,16 +2533,16 @@
         <v>56</v>
       </c>
       <c r="I22" s="13">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="68"/>
-      <c r="O22" s="40"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="40"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -2564,18 +2564,20 @@
         <f>E23+2</f>
         <v>44707</v>
       </c>
-      <c r="H23" s="41"/>
+      <c r="H23" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="I23" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="68"/>
-      <c r="O23" s="40"/>
+      <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="40"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2597,7 +2599,7 @@
         <f>E24+2</f>
         <v>44707</v>
       </c>
-      <c r="H24" s="41"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="13">
         <v>0</v>
       </c>
@@ -2606,9 +2608,9 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="68"/>
-      <c r="O24" s="40"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="Q24" s="40"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -2630,7 +2632,7 @@
         <f>E25+1</f>
         <v>44709</v>
       </c>
-      <c r="H25" s="43"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="13">
         <v>0</v>
       </c>
@@ -2639,9 +2641,9 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="68"/>
-      <c r="O25" s="40"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="Q25" s="40"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2663,22 +2665,22 @@
         <f>E26+1</f>
         <v>44712</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79">
+      <c r="H26" s="103"/>
+      <c r="I26" s="78">
         <v>0</v>
       </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="80"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
       <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="83"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="82"/>
     </row>
     <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
@@ -2704,175 +2706,175 @@
     </row>
     <row r="29" spans="1:23" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="86"/>
-      <c r="D32" s="85" t="s">
+      <c r="C32" s="85"/>
+      <c r="D32" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="83"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="87"/>
-      <c r="D33" s="85" t="s">
+      <c r="C33" s="86"/>
+      <c r="D33" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
+      <c r="W36" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3180,60 +3182,60 @@
     <row r="1" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
     </row>
@@ -3300,48 +3302,48 @@
     <row r="5" spans="1:42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="96"/>
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="96"/>
     </row>
     <row r="6" spans="1:42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
@@ -3351,17 +3353,17 @@
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="27"/>
@@ -3410,85 +3412,85 @@
     <row r="8" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="87">
         <v>44682</v>
       </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88">
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="87">
         <v>44713</v>
       </c>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="88">
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="87">
         <v>44743</v>
       </c>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="98">
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="97">
         <v>44774</v>
       </c>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="98">
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="97">
         <v>44621</v>
       </c>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="98">
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="97">
         <v>44652</v>
       </c>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="98">
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="97">
         <v>44682</v>
       </c>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="98">
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="97">
         <v>44713</v>
       </c>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
     </row>
     <row r="9" spans="1:42" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="102"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="2">
         <f>E11</f>
         <v>44683</v>
@@ -3625,13 +3627,13 @@
     <row r="10" spans="1:42" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="103"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5221,6 +5223,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
     <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="C1:Z2"/>
@@ -5237,8 +5241,6 @@
     <mergeCell ref="AM8:AP8"/>
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
     <cfRule type="notContainsBlanks" dxfId="3" priority="2">
@@ -5324,60 +5326,60 @@
     <row r="1" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
     </row>
@@ -5444,48 +5446,48 @@
     <row r="5" spans="1:42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="96"/>
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="96"/>
     </row>
     <row r="6" spans="1:42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
@@ -5495,17 +5497,17 @@
       </c>
       <c r="E6" s="47">
         <f ca="1">TODAY()</f>
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="27"/>
@@ -5554,85 +5556,85 @@
     <row r="8" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="87">
         <v>44682</v>
       </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88">
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="87">
         <v>44713</v>
       </c>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="88">
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="87">
         <v>44743</v>
       </c>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="98">
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="97">
         <v>44593</v>
       </c>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="98">
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="97">
         <v>44621</v>
       </c>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="98">
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="97">
         <v>44652</v>
       </c>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="98">
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="97">
         <v>44682</v>
       </c>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="98">
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="97">
         <v>44713</v>
       </c>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
     </row>
     <row r="9" spans="1:42" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="102"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="2">
         <f>E11</f>
         <v>44684</v>
@@ -5769,13 +5771,13 @@
     <row r="10" spans="1:42" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="103"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="24" t="s">
         <v>0</v>
       </c>
@@ -7053,6 +7055,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
     <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="C1:Z2"/>
@@ -7069,8 +7073,6 @@
     <mergeCell ref="AM8:AP8"/>
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:AP30">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
